--- a/data/pca/factorExposure/factorExposure_2016-07-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0103594412018219</v>
+        <v>0.01310817450463692</v>
       </c>
       <c r="C2">
-        <v>-0.05508105208251193</v>
+        <v>0.04283188997792904</v>
       </c>
       <c r="D2">
-        <v>0.0388446073019028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06222024730009532</v>
+      </c>
+      <c r="E2">
+        <v>-0.07039983211075791</v>
+      </c>
+      <c r="F2">
+        <v>0.06658351507840875</v>
+      </c>
+      <c r="G2">
+        <v>0.03390934767950967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05324610262272626</v>
+        <v>0.02906663577358765</v>
       </c>
       <c r="C3">
-        <v>-0.09694521921109643</v>
+        <v>0.07872776104601949</v>
       </c>
       <c r="D3">
-        <v>0.1076099962942637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09033056812486696</v>
+      </c>
+      <c r="E3">
+        <v>-0.07107456562029185</v>
+      </c>
+      <c r="F3">
+        <v>-0.007080052434332941</v>
+      </c>
+      <c r="G3">
+        <v>-0.04052926473945874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06559340728125888</v>
+        <v>0.05760415948886324</v>
       </c>
       <c r="C4">
-        <v>-0.05995420495651239</v>
+        <v>0.06637555525730568</v>
       </c>
       <c r="D4">
-        <v>0.03008743613287011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05856166647721527</v>
+      </c>
+      <c r="E4">
+        <v>-0.07116797131772477</v>
+      </c>
+      <c r="F4">
+        <v>0.07571462111350065</v>
+      </c>
+      <c r="G4">
+        <v>-0.04059554170155956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03996407470910969</v>
+        <v>0.03524390035766922</v>
       </c>
       <c r="C6">
-        <v>-0.03875498204653647</v>
+        <v>0.03210294001579948</v>
       </c>
       <c r="D6">
-        <v>0.0337979197201675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0627363584869441</v>
+      </c>
+      <c r="E6">
+        <v>-0.07525263848280987</v>
+      </c>
+      <c r="F6">
+        <v>0.0566562709602296</v>
+      </c>
+      <c r="G6">
+        <v>-0.02384208183510085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02221391611497055</v>
+        <v>0.01839567126942049</v>
       </c>
       <c r="C7">
-        <v>-0.04372469023128919</v>
+        <v>0.03883287482929923</v>
       </c>
       <c r="D7">
-        <v>-0.005737530894413027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03659907862248386</v>
+      </c>
+      <c r="E7">
+        <v>-0.05027316179794711</v>
+      </c>
+      <c r="F7">
+        <v>0.09882561828014218</v>
+      </c>
+      <c r="G7">
+        <v>-0.01034373849715598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003277774371349238</v>
+        <v>0.003112088345689804</v>
       </c>
       <c r="C8">
-        <v>-0.02756106914962217</v>
+        <v>0.02898852587620582</v>
       </c>
       <c r="D8">
-        <v>0.02949911688801646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03050720951311408</v>
+      </c>
+      <c r="E8">
+        <v>-0.05114004514448833</v>
+      </c>
+      <c r="F8">
+        <v>0.03669935896421676</v>
+      </c>
+      <c r="G8">
+        <v>-0.01035841663016119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03564084539675416</v>
+        <v>0.0362786349066992</v>
       </c>
       <c r="C9">
-        <v>-0.0443393596470263</v>
+        <v>0.05242593121261728</v>
       </c>
       <c r="D9">
-        <v>0.01629107598919943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04241224319337596</v>
+      </c>
+      <c r="E9">
+        <v>-0.0589204894850257</v>
+      </c>
+      <c r="F9">
+        <v>0.08342121780894367</v>
+      </c>
+      <c r="G9">
+        <v>-0.0252252622141311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07253099026589704</v>
+        <v>0.1004579683095762</v>
       </c>
       <c r="C10">
-        <v>0.1981224660851951</v>
+        <v>-0.1957047399651102</v>
       </c>
       <c r="D10">
-        <v>-0.009261921909936051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006355838101486952</v>
+      </c>
+      <c r="E10">
+        <v>-0.04358082856349889</v>
+      </c>
+      <c r="F10">
+        <v>0.03852436669091963</v>
+      </c>
+      <c r="G10">
+        <v>-0.01006317277971463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04180052252303121</v>
+        <v>0.03624604497816278</v>
       </c>
       <c r="C11">
-        <v>-0.05470521410259822</v>
+        <v>0.05169422264978336</v>
       </c>
       <c r="D11">
-        <v>0.01329611772217734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03353549135372114</v>
+      </c>
+      <c r="E11">
+        <v>-0.01740966330319884</v>
+      </c>
+      <c r="F11">
+        <v>0.06429215204816194</v>
+      </c>
+      <c r="G11">
+        <v>-0.01665625403830878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04125948061326869</v>
+        <v>0.03703634318881403</v>
       </c>
       <c r="C12">
-        <v>-0.04867223692379116</v>
+        <v>0.04750426372716979</v>
       </c>
       <c r="D12">
-        <v>0.002175258408691805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02503002900049971</v>
+      </c>
+      <c r="E12">
+        <v>-0.02490620011617344</v>
+      </c>
+      <c r="F12">
+        <v>0.06597737234410281</v>
+      </c>
+      <c r="G12">
+        <v>-0.01355655874178662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01629456032810514</v>
+        <v>0.01226762511423814</v>
       </c>
       <c r="C13">
-        <v>-0.05129795908484212</v>
+        <v>0.04412094327832349</v>
       </c>
       <c r="D13">
-        <v>0.02298015773950958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05946974429887202</v>
+      </c>
+      <c r="E13">
+        <v>-0.08504163737268501</v>
+      </c>
+      <c r="F13">
+        <v>0.0970539038035267</v>
+      </c>
+      <c r="G13">
+        <v>-0.02216216156320482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007546682818855065</v>
+        <v>0.004597906344006275</v>
       </c>
       <c r="C14">
-        <v>-0.03532716546052637</v>
+        <v>0.03234044643309541</v>
       </c>
       <c r="D14">
-        <v>-0.01356131636535265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02522238706964156</v>
+      </c>
+      <c r="E14">
+        <v>-0.03982295140893451</v>
+      </c>
+      <c r="F14">
+        <v>0.09503286773082173</v>
+      </c>
+      <c r="G14">
+        <v>0.004327861402748723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006890211509604665</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00555344063478837</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006470412876124806</v>
+      </c>
+      <c r="E15">
+        <v>-0.001948314095424499</v>
+      </c>
+      <c r="F15">
+        <v>0.004236007187170728</v>
+      </c>
+      <c r="G15">
+        <v>-0.0003700043699388577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03815069546397818</v>
+        <v>0.03372178422840154</v>
       </c>
       <c r="C16">
-        <v>-0.04693877705268405</v>
+        <v>0.04564718656709379</v>
       </c>
       <c r="D16">
-        <v>0.007950600023260104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02667575101433028</v>
+      </c>
+      <c r="E16">
+        <v>-0.03181646803773261</v>
+      </c>
+      <c r="F16">
+        <v>0.06678176820076567</v>
+      </c>
+      <c r="G16">
+        <v>-0.002998173085120013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02424951858158077</v>
+        <v>0.01620189746334656</v>
       </c>
       <c r="C19">
-        <v>-0.06497628825579824</v>
+        <v>0.05088100309876495</v>
       </c>
       <c r="D19">
-        <v>0.07867056446056542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08954007436870255</v>
+      </c>
+      <c r="E19">
+        <v>-0.1008489857601151</v>
+      </c>
+      <c r="F19">
+        <v>0.07363204753709432</v>
+      </c>
+      <c r="G19">
+        <v>0.02029343127218147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01755938289456281</v>
+        <v>0.01330518339912647</v>
       </c>
       <c r="C20">
-        <v>-0.04479309010680922</v>
+        <v>0.04093767021253306</v>
       </c>
       <c r="D20">
-        <v>0.01726946536613953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0362572567866406</v>
+      </c>
+      <c r="E20">
+        <v>-0.070263741643924</v>
+      </c>
+      <c r="F20">
+        <v>0.07810871358242885</v>
+      </c>
+      <c r="G20">
+        <v>-0.007016010744181221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01244827401080806</v>
+        <v>0.008981620862228945</v>
       </c>
       <c r="C21">
-        <v>-0.04931160091798385</v>
+        <v>0.04571891902089168</v>
       </c>
       <c r="D21">
-        <v>0.0390331227314557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06587261470388896</v>
+      </c>
+      <c r="E21">
+        <v>-0.09909081178816136</v>
+      </c>
+      <c r="F21">
+        <v>0.1203897700117174</v>
+      </c>
+      <c r="G21">
+        <v>-0.01130986043372511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001929218764127882</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02380211425840673</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03603113587979615</v>
+      </c>
+      <c r="E22">
+        <v>-0.02876017035202293</v>
+      </c>
+      <c r="F22">
+        <v>0.01432840100788754</v>
+      </c>
+      <c r="G22">
+        <v>-0.03958741591117591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001995295210335472</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02394025023219532</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03568653455148647</v>
+      </c>
+      <c r="E23">
+        <v>-0.02901619744954384</v>
+      </c>
+      <c r="F23">
+        <v>0.01413158938047646</v>
+      </c>
+      <c r="G23">
+        <v>-0.03978326337247569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03378896843193799</v>
+        <v>0.03341462185920872</v>
       </c>
       <c r="C24">
-        <v>-0.05078869570685374</v>
+        <v>0.05361824782573665</v>
       </c>
       <c r="D24">
-        <v>0.006989086561944901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02587414622523038</v>
+      </c>
+      <c r="E24">
+        <v>-0.0290930025836769</v>
+      </c>
+      <c r="F24">
+        <v>0.07521181053761083</v>
+      </c>
+      <c r="G24">
+        <v>-0.0109225655395184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04752299548932056</v>
+        <v>0.04373668866213325</v>
       </c>
       <c r="C25">
-        <v>-0.06106620435343282</v>
+        <v>0.05710643524183703</v>
       </c>
       <c r="D25">
-        <v>-0.0008305147797440392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0243955195471729</v>
+      </c>
+      <c r="E25">
+        <v>-0.023797765802346</v>
+      </c>
+      <c r="F25">
+        <v>0.07707422425265666</v>
+      </c>
+      <c r="G25">
+        <v>-0.02796384785525288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01600748845909167</v>
+        <v>0.0137702405231982</v>
       </c>
       <c r="C26">
-        <v>-0.01550542120438608</v>
+        <v>0.01691582434843615</v>
       </c>
       <c r="D26">
-        <v>-0.001439547929744133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02369291230541452</v>
+      </c>
+      <c r="E26">
+        <v>-0.04048299782708096</v>
+      </c>
+      <c r="F26">
+        <v>0.06767268667172562</v>
+      </c>
+      <c r="G26">
+        <v>0.01270280024099492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08488048824305819</v>
+        <v>0.1352444539525394</v>
       </c>
       <c r="C28">
-        <v>0.234499757812442</v>
+        <v>-0.2458853092166185</v>
       </c>
       <c r="D28">
-        <v>-0.008992603733980793</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02144227768146765</v>
+      </c>
+      <c r="E28">
+        <v>-0.04642002784642416</v>
+      </c>
+      <c r="F28">
+        <v>0.05731651871739611</v>
+      </c>
+      <c r="G28">
+        <v>-0.02392994405815728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009120401241935049</v>
+        <v>0.00571736314627029</v>
       </c>
       <c r="C29">
-        <v>-0.02825144108553806</v>
+        <v>0.02757879666612603</v>
       </c>
       <c r="D29">
-        <v>-0.01853114663238602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01914757805048156</v>
+      </c>
+      <c r="E29">
+        <v>-0.0399929072611839</v>
+      </c>
+      <c r="F29">
+        <v>0.08849063399549716</v>
+      </c>
+      <c r="G29">
+        <v>-0.008003300345969279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05125404896046196</v>
+        <v>0.04159027089296712</v>
       </c>
       <c r="C30">
-        <v>-0.05930530493600113</v>
+        <v>0.06341500265221338</v>
       </c>
       <c r="D30">
-        <v>0.07344815748902786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1063500238103101</v>
+      </c>
+      <c r="E30">
+        <v>-0.06530074151495731</v>
+      </c>
+      <c r="F30">
+        <v>0.0916329863165727</v>
+      </c>
+      <c r="G30">
+        <v>0.01126923012942408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05411888598644371</v>
+        <v>0.0547049535908361</v>
       </c>
       <c r="C31">
-        <v>-0.03635633274186181</v>
+        <v>0.05605991424827068</v>
       </c>
       <c r="D31">
-        <v>-0.02870549908836498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01311891699101505</v>
+      </c>
+      <c r="E31">
+        <v>-0.06021786804104792</v>
+      </c>
+      <c r="F31">
+        <v>0.07077699867318649</v>
+      </c>
+      <c r="G31">
+        <v>-0.04954305410305876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002222529157090537</v>
+        <v>0.004867165272921498</v>
       </c>
       <c r="C32">
-        <v>-0.04440524723513372</v>
+        <v>0.03483443451941454</v>
       </c>
       <c r="D32">
-        <v>0.04083964867526568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05090614377132993</v>
+      </c>
+      <c r="E32">
+        <v>-0.04160772879140014</v>
+      </c>
+      <c r="F32">
+        <v>0.06398367632707043</v>
+      </c>
+      <c r="G32">
+        <v>0.008913430226794616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02825424681655394</v>
+        <v>0.0243292044131695</v>
       </c>
       <c r="C33">
-        <v>-0.061355328970901</v>
+        <v>0.05490027749354777</v>
       </c>
       <c r="D33">
-        <v>0.04370170992331593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0764257861911455</v>
+      </c>
+      <c r="E33">
+        <v>-0.07357026751644277</v>
+      </c>
+      <c r="F33">
+        <v>0.1168617858246185</v>
+      </c>
+      <c r="G33">
+        <v>-0.02430657644825854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04575813459447191</v>
+        <v>0.04081303775652162</v>
       </c>
       <c r="C34">
-        <v>-0.06557591316828928</v>
+        <v>0.06412924036771574</v>
       </c>
       <c r="D34">
-        <v>0.009462936240517554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03359027301979362</v>
+      </c>
+      <c r="E34">
+        <v>-0.004250548137861276</v>
+      </c>
+      <c r="F34">
+        <v>0.07780462416902063</v>
+      </c>
+      <c r="G34">
+        <v>-0.01291518978768326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01335076326354723</v>
+        <v>0.01299527263025908</v>
       </c>
       <c r="C36">
-        <v>-0.01707186881380032</v>
+        <v>0.01305411796239368</v>
       </c>
       <c r="D36">
-        <v>-0.003165589812335404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02529305408294486</v>
+      </c>
+      <c r="E36">
+        <v>-0.04719852906851747</v>
+      </c>
+      <c r="F36">
+        <v>0.07407631420000753</v>
+      </c>
+      <c r="G36">
+        <v>-0.01124047107114943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0305765196454041</v>
+        <v>0.0239396459308341</v>
       </c>
       <c r="C38">
-        <v>-0.02817635671143002</v>
+        <v>0.02522980395438062</v>
       </c>
       <c r="D38">
-        <v>-0.006627085230749604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0245549425724426</v>
+      </c>
+      <c r="E38">
+        <v>-0.04530286439818207</v>
+      </c>
+      <c r="F38">
+        <v>0.0622736965715182</v>
+      </c>
+      <c r="G38">
+        <v>-0.007018724241101236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04629142474270163</v>
+        <v>0.03924337465567188</v>
       </c>
       <c r="C39">
-        <v>-0.07062213506303359</v>
+        <v>0.06851910418038738</v>
       </c>
       <c r="D39">
-        <v>0.02109954902609958</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05234425543147515</v>
+      </c>
+      <c r="E39">
+        <v>-0.03441767566576071</v>
+      </c>
+      <c r="F39">
+        <v>0.08712826838372734</v>
+      </c>
+      <c r="G39">
+        <v>0.01185249384184303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01516341028199889</v>
+        <v>0.01500167072498119</v>
       </c>
       <c r="C40">
-        <v>-0.03988827889941554</v>
+        <v>0.03983441385822351</v>
       </c>
       <c r="D40">
-        <v>0.03493624082967116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03585883554457044</v>
+      </c>
+      <c r="E40">
+        <v>-0.08616617402297529</v>
+      </c>
+      <c r="F40">
+        <v>0.06900368863634958</v>
+      </c>
+      <c r="G40">
+        <v>-0.04505699838757104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01706685991259065</v>
+        <v>0.0177595951931172</v>
       </c>
       <c r="C41">
-        <v>-0.009181106668656324</v>
+        <v>0.007376776767528851</v>
       </c>
       <c r="D41">
-        <v>-0.005757796292940457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01280936643447755</v>
+      </c>
+      <c r="E41">
+        <v>-0.05022427242240039</v>
+      </c>
+      <c r="F41">
+        <v>0.06315688767101746</v>
+      </c>
+      <c r="G41">
+        <v>-0.004494736747616185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.000151037059218184</v>
+        <v>-3.236618108599366e-05</v>
       </c>
       <c r="C42">
-        <v>-0.003135197815866613</v>
+        <v>0.001873220764568231</v>
       </c>
       <c r="D42">
-        <v>-0.001926467676891465</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0009714305747392599</v>
+      </c>
+      <c r="E42">
+        <v>0.003505315531532364</v>
+      </c>
+      <c r="F42">
+        <v>-0.002042832515405787</v>
+      </c>
+      <c r="G42">
+        <v>-0.002574834160135799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03651777775482352</v>
+        <v>0.02858291378873478</v>
       </c>
       <c r="C43">
-        <v>-0.02502669142111424</v>
+        <v>0.02204693336592786</v>
       </c>
       <c r="D43">
-        <v>0.01522946475994546</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03835252354579907</v>
+      </c>
+      <c r="E43">
+        <v>-0.06123855111426962</v>
+      </c>
+      <c r="F43">
+        <v>0.07361218568050812</v>
+      </c>
+      <c r="G43">
+        <v>-0.02469336032819581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0180493946339679</v>
+        <v>0.01378393236162714</v>
       </c>
       <c r="C44">
-        <v>-0.05920853538239447</v>
+        <v>0.05318299959202931</v>
       </c>
       <c r="D44">
-        <v>0.01788859209838095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03826069346091374</v>
+      </c>
+      <c r="E44">
+        <v>-0.07683132476168192</v>
+      </c>
+      <c r="F44">
+        <v>0.07432132243716764</v>
+      </c>
+      <c r="G44">
+        <v>0.001588632353034334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.005268452749580864</v>
+        <v>0.007507526320829348</v>
       </c>
       <c r="C46">
-        <v>-0.02370834503445167</v>
+        <v>0.02626791599054388</v>
       </c>
       <c r="D46">
-        <v>-0.02408109494176466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009278947235034286</v>
+      </c>
+      <c r="E46">
+        <v>-0.04750620182372316</v>
+      </c>
+      <c r="F46">
+        <v>0.09903212706833453</v>
+      </c>
+      <c r="G46">
+        <v>-0.002956378633441385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08438608655735819</v>
+        <v>0.0868187175886997</v>
       </c>
       <c r="C47">
-        <v>-0.064899427245854</v>
+        <v>0.07984577448698602</v>
       </c>
       <c r="D47">
-        <v>-0.02859389365134444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01997655325467674</v>
+      </c>
+      <c r="E47">
+        <v>-0.0636245194911097</v>
+      </c>
+      <c r="F47">
+        <v>0.07118857374507012</v>
+      </c>
+      <c r="G47">
+        <v>-0.05319715802157976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01891418870048616</v>
+        <v>0.01570081099045225</v>
       </c>
       <c r="C48">
-        <v>-0.01331555170791916</v>
+        <v>0.017184806006299</v>
       </c>
       <c r="D48">
-        <v>-0.01580900586613716</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01430993890292642</v>
+      </c>
+      <c r="E48">
+        <v>-0.05846232250122654</v>
+      </c>
+      <c r="F48">
+        <v>0.08857389000892597</v>
+      </c>
+      <c r="G48">
+        <v>-0.01119916256966966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08237799087819718</v>
+        <v>0.0706699028487439</v>
       </c>
       <c r="C50">
-        <v>-0.07047205695737978</v>
+        <v>0.07246326392989745</v>
       </c>
       <c r="D50">
-        <v>-0.0338089505534656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008160176058012036</v>
+      </c>
+      <c r="E50">
+        <v>-0.06480407756699286</v>
+      </c>
+      <c r="F50">
+        <v>0.0576797590293901</v>
+      </c>
+      <c r="G50">
+        <v>-0.07394802461384486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01629296804085593</v>
+        <v>0.0105149457027838</v>
       </c>
       <c r="C51">
-        <v>-0.04856150010064831</v>
+        <v>0.03423698407879642</v>
       </c>
       <c r="D51">
-        <v>0.02310046067551532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04827310649377255</v>
+      </c>
+      <c r="E51">
+        <v>-0.03845729996418216</v>
+      </c>
+      <c r="F51">
+        <v>0.07716367099914825</v>
+      </c>
+      <c r="G51">
+        <v>0.01744878676073206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08424061279785587</v>
+        <v>0.09349302362194703</v>
       </c>
       <c r="C53">
-        <v>-0.07076243091257171</v>
+        <v>0.0866302365196637</v>
       </c>
       <c r="D53">
-        <v>-0.0396491595136329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0435425907174337</v>
+      </c>
+      <c r="E53">
+        <v>-0.05873287338840331</v>
+      </c>
+      <c r="F53">
+        <v>0.08143251967185984</v>
+      </c>
+      <c r="G53">
+        <v>-0.06558442941445505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0312954664636276</v>
+        <v>0.02750775040635644</v>
       </c>
       <c r="C54">
-        <v>-0.02410290504239958</v>
+        <v>0.02581420968459253</v>
       </c>
       <c r="D54">
-        <v>-0.003658568337133904</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02891985209831666</v>
+      </c>
+      <c r="E54">
+        <v>-0.04878214417489085</v>
+      </c>
+      <c r="F54">
+        <v>0.09796614718436585</v>
+      </c>
+      <c r="G54">
+        <v>-0.009905114734370465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07709640184595815</v>
+        <v>0.08484489354636479</v>
       </c>
       <c r="C55">
-        <v>-0.05456074940850286</v>
+        <v>0.06982439256667571</v>
       </c>
       <c r="D55">
-        <v>-0.04746047804948843</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04999870259489902</v>
+      </c>
+      <c r="E55">
+        <v>-0.04656232254470389</v>
+      </c>
+      <c r="F55">
+        <v>0.05825874505817891</v>
+      </c>
+      <c r="G55">
+        <v>-0.05313148442277048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1485082078385048</v>
+        <v>0.1464832547766925</v>
       </c>
       <c r="C56">
-        <v>-0.08900004756376062</v>
+        <v>0.1046144104934467</v>
       </c>
       <c r="D56">
-        <v>-0.05022537621978578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05429165212610552</v>
+      </c>
+      <c r="E56">
+        <v>-0.04895229210219479</v>
+      </c>
+      <c r="F56">
+        <v>0.04098348910510751</v>
+      </c>
+      <c r="G56">
+        <v>-0.06021531549577485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0009924259556959101</v>
+        <v>0.0003270853802416082</v>
       </c>
       <c r="C57">
-        <v>-0.001083897277534202</v>
+        <v>0.0008364136594217407</v>
       </c>
       <c r="D57">
-        <v>0.01671640542829653</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01220679341899644</v>
+      </c>
+      <c r="E57">
+        <v>-0.008939630596664498</v>
+      </c>
+      <c r="F57">
+        <v>0.005790397729353259</v>
+      </c>
+      <c r="G57">
+        <v>-0.003131753927250713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06201831925438282</v>
+        <v>0.0279875224783451</v>
       </c>
       <c r="C58">
-        <v>-0.01991947877835646</v>
+        <v>0.03482310804624599</v>
       </c>
       <c r="D58">
-        <v>0.7367460050321053</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4064673927114283</v>
+      </c>
+      <c r="E58">
+        <v>-0.6617713866064866</v>
+      </c>
+      <c r="F58">
+        <v>-0.5478887879110669</v>
+      </c>
+      <c r="G58">
+        <v>0.07105523568975168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1289205461570105</v>
+        <v>0.1454781546616097</v>
       </c>
       <c r="C59">
-        <v>0.2011519027956088</v>
+        <v>-0.1861169097202647</v>
       </c>
       <c r="D59">
-        <v>0.02133136528957684</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02981736697533331</v>
+      </c>
+      <c r="E59">
+        <v>-0.02784086410066579</v>
+      </c>
+      <c r="F59">
+        <v>0.02106645249294123</v>
+      </c>
+      <c r="G59">
+        <v>0.02815970596531758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3128621848512166</v>
+        <v>0.2833037609916809</v>
       </c>
       <c r="C60">
-        <v>-0.08118084110436033</v>
+        <v>0.09831077560074593</v>
       </c>
       <c r="D60">
-        <v>0.1146424137023351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.224983227485193</v>
+      </c>
+      <c r="E60">
+        <v>0.2656674839314264</v>
+      </c>
+      <c r="F60">
+        <v>-0.08805964495725074</v>
+      </c>
+      <c r="G60">
+        <v>-0.04296294525877033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04303129442651098</v>
+        <v>0.04071385880619247</v>
       </c>
       <c r="C61">
-        <v>-0.06477876885652428</v>
+        <v>0.0627131103496579</v>
       </c>
       <c r="D61">
-        <v>0.0163012328144798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04478158962541171</v>
+      </c>
+      <c r="E61">
+        <v>-0.03831891665511782</v>
+      </c>
+      <c r="F61">
+        <v>0.07688009292296068</v>
+      </c>
+      <c r="G61">
+        <v>-0.01399317262480363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01585113808859059</v>
+        <v>0.01493623273456798</v>
       </c>
       <c r="C63">
-        <v>-0.03561665204567191</v>
+        <v>0.0323376033685568</v>
       </c>
       <c r="D63">
-        <v>-0.006400287215882887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02103695075550828</v>
+      </c>
+      <c r="E63">
+        <v>-0.04946330560036318</v>
+      </c>
+      <c r="F63">
+        <v>0.06937098651424839</v>
+      </c>
+      <c r="G63">
+        <v>-0.0301070291848231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04809451785599434</v>
+        <v>0.05557577664244454</v>
       </c>
       <c r="C64">
-        <v>-0.04364645121800716</v>
+        <v>0.05571503174395721</v>
       </c>
       <c r="D64">
-        <v>-0.0004594701595805443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005438767297363995</v>
+      </c>
+      <c r="E64">
+        <v>-0.03107031852931149</v>
+      </c>
+      <c r="F64">
+        <v>0.08204876296064366</v>
+      </c>
+      <c r="G64">
+        <v>-0.01215156659533036</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0900480144297697</v>
+        <v>0.06907559289876476</v>
       </c>
       <c r="C65">
-        <v>-0.02862490425193626</v>
+        <v>0.03274408047265551</v>
       </c>
       <c r="D65">
-        <v>0.04950334021832184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0844761015359361</v>
+      </c>
+      <c r="E65">
+        <v>-0.04458627005055733</v>
+      </c>
+      <c r="F65">
+        <v>0.007775436555354333</v>
+      </c>
+      <c r="G65">
+        <v>-0.00158286853100687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06501557223162073</v>
+        <v>0.05197195337607652</v>
       </c>
       <c r="C66">
-        <v>-0.1010866054202474</v>
+        <v>0.09045895823746017</v>
       </c>
       <c r="D66">
-        <v>0.04304198915717486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07990684710267211</v>
+      </c>
+      <c r="E66">
+        <v>-0.04228795823040502</v>
+      </c>
+      <c r="F66">
+        <v>0.08898386289531086</v>
+      </c>
+      <c r="G66">
+        <v>-0.005775824230655994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05263496800030009</v>
+        <v>0.04597733506684</v>
       </c>
       <c r="C67">
-        <v>-0.0327735196427776</v>
+        <v>0.03185915089643726</v>
       </c>
       <c r="D67">
-        <v>-0.009059781641548595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01161771722821433</v>
+      </c>
+      <c r="E67">
+        <v>-0.02496911954807187</v>
+      </c>
+      <c r="F67">
+        <v>0.05103818288900648</v>
+      </c>
+      <c r="G67">
+        <v>-0.01371239178030255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1136728230826204</v>
+        <v>0.1509580546648652</v>
       </c>
       <c r="C68">
-        <v>0.2885601009706791</v>
+        <v>-0.2507497103623675</v>
       </c>
       <c r="D68">
-        <v>-0.008841310622967304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02093338796212147</v>
+      </c>
+      <c r="E68">
+        <v>-0.04188162253515284</v>
+      </c>
+      <c r="F68">
+        <v>0.01463752066397937</v>
+      </c>
+      <c r="G68">
+        <v>-0.01120912533094836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09123113251104627</v>
+        <v>0.08668967402385548</v>
       </c>
       <c r="C69">
-        <v>-0.06353779180402595</v>
+        <v>0.08626339960046747</v>
       </c>
       <c r="D69">
-        <v>-0.04113933515238451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01085526779346308</v>
+      </c>
+      <c r="E69">
+        <v>-0.04800909847370678</v>
+      </c>
+      <c r="F69">
+        <v>0.08952671645071258</v>
+      </c>
+      <c r="G69">
+        <v>-0.03079143659352917</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.108670887069639</v>
+        <v>0.1430180314032548</v>
       </c>
       <c r="C71">
-        <v>0.249545371421705</v>
+        <v>-0.233870282225414</v>
       </c>
       <c r="D71">
-        <v>0.02006854273753545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009965141541053397</v>
+      </c>
+      <c r="E71">
+        <v>-0.0662548206132748</v>
+      </c>
+      <c r="F71">
+        <v>0.05434662442920509</v>
+      </c>
+      <c r="G71">
+        <v>-0.03601964816188055</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09086851336792948</v>
+        <v>0.09702181222404381</v>
       </c>
       <c r="C72">
-        <v>-0.04576833255933106</v>
+        <v>0.05521750816905285</v>
       </c>
       <c r="D72">
-        <v>-0.0008044867112011871</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02416401569114136</v>
+      </c>
+      <c r="E72">
+        <v>-0.02503926390307413</v>
+      </c>
+      <c r="F72">
+        <v>0.07257681181960127</v>
+      </c>
+      <c r="G72">
+        <v>-0.0296285173146689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4209211326109445</v>
+        <v>0.3474658959427901</v>
       </c>
       <c r="C73">
-        <v>-0.0601977280619836</v>
+        <v>0.08209841379966955</v>
       </c>
       <c r="D73">
-        <v>0.3122880392970595</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4734379881934034</v>
+      </c>
+      <c r="E73">
+        <v>0.4715507841483189</v>
+      </c>
+      <c r="F73">
+        <v>-0.246112141369372</v>
+      </c>
+      <c r="G73">
+        <v>-0.09513999193473964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1120599067234594</v>
+        <v>0.1106608275949687</v>
       </c>
       <c r="C74">
-        <v>-0.09703040139407053</v>
+        <v>0.09906023377000954</v>
       </c>
       <c r="D74">
-        <v>-0.02572704448202303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03318278971379918</v>
+      </c>
+      <c r="E74">
+        <v>-0.0645314518381862</v>
+      </c>
+      <c r="F74">
+        <v>0.0461393900661102</v>
+      </c>
+      <c r="G74">
+        <v>-0.07564901053450163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2530125478044431</v>
+        <v>0.256344034684804</v>
       </c>
       <c r="C75">
-        <v>-0.1004389011344001</v>
+        <v>0.1331960804929837</v>
       </c>
       <c r="D75">
-        <v>-0.09031347408935018</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1336594437937511</v>
+      </c>
+      <c r="E75">
+        <v>-0.06701376287645655</v>
+      </c>
+      <c r="F75">
+        <v>0.006874532190959538</v>
+      </c>
+      <c r="G75">
+        <v>-0.07653058117020176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1157412775596608</v>
+        <v>0.1279615566737122</v>
       </c>
       <c r="C76">
-        <v>-0.08820027758653605</v>
+        <v>0.1006056864783068</v>
       </c>
       <c r="D76">
-        <v>-0.04340393849540893</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06079525549303145</v>
+      </c>
+      <c r="E76">
+        <v>-0.07096426667500744</v>
+      </c>
+      <c r="F76">
+        <v>0.0616940288752625</v>
+      </c>
+      <c r="G76">
+        <v>-0.06399815946717279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07808388189283957</v>
+        <v>0.06253578417729293</v>
       </c>
       <c r="C77">
-        <v>-0.05559137040837327</v>
+        <v>0.071778437947049</v>
       </c>
       <c r="D77">
-        <v>0.06451030794403012</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06486491137768552</v>
+      </c>
+      <c r="E77">
+        <v>-0.09433898542742908</v>
+      </c>
+      <c r="F77">
+        <v>0.1109202481537895</v>
+      </c>
+      <c r="G77">
+        <v>0.1324422132724848</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04938921836900241</v>
+        <v>0.04343676019857153</v>
       </c>
       <c r="C78">
-        <v>-0.04256784406703258</v>
+        <v>0.05691035317400819</v>
       </c>
       <c r="D78">
-        <v>0.02842551815414774</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07091395304717132</v>
+      </c>
+      <c r="E78">
+        <v>-0.04778033921957196</v>
+      </c>
+      <c r="F78">
+        <v>0.09529595574606614</v>
+      </c>
+      <c r="G78">
+        <v>-0.006370785314994024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02549258964202977</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03876474422493733</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06279181637727027</v>
+      </c>
+      <c r="E79">
+        <v>-0.05299578667209539</v>
+      </c>
+      <c r="F79">
+        <v>0.03473124792553361</v>
+      </c>
+      <c r="G79">
+        <v>-0.06798721007350166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04646588774560152</v>
+        <v>0.03470441988555433</v>
       </c>
       <c r="C80">
-        <v>-0.05167490599629761</v>
+        <v>0.05452806744976366</v>
       </c>
       <c r="D80">
-        <v>0.03469007326895228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0446688445914481</v>
+      </c>
+      <c r="E80">
+        <v>-0.01666015699814135</v>
+      </c>
+      <c r="F80">
+        <v>0.03453803975113783</v>
+      </c>
+      <c r="G80">
+        <v>0.04638129024464759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1437057367233738</v>
+        <v>0.140405631153933</v>
       </c>
       <c r="C81">
-        <v>-0.06966237852557133</v>
+        <v>0.0955381745505637</v>
       </c>
       <c r="D81">
-        <v>-0.06358133072023489</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1019565034822447</v>
+      </c>
+      <c r="E81">
+        <v>-0.07990811799273348</v>
+      </c>
+      <c r="F81">
+        <v>0.00532766659143467</v>
+      </c>
+      <c r="G81">
+        <v>-0.05516242527530555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1605190547704221</v>
+        <v>0.2014602139662723</v>
       </c>
       <c r="C82">
-        <v>-0.06064099827087027</v>
+        <v>0.1384320552959503</v>
       </c>
       <c r="D82">
-        <v>-0.1569007067960054</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2366835839691055</v>
+      </c>
+      <c r="E82">
+        <v>-0.0003935639949479531</v>
+      </c>
+      <c r="F82">
+        <v>0.09384946292884258</v>
+      </c>
+      <c r="G82">
+        <v>-0.04335316293753506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03767801170096134</v>
+        <v>0.02792020294738368</v>
       </c>
       <c r="C83">
-        <v>-0.02409421379236493</v>
+        <v>0.04203002744679176</v>
       </c>
       <c r="D83">
-        <v>0.03546299284682365</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03408823029985313</v>
+      </c>
+      <c r="E83">
+        <v>-0.02235587348251733</v>
+      </c>
+      <c r="F83">
+        <v>0.04328426228746524</v>
+      </c>
+      <c r="G83">
+        <v>0.02013757232772491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2205521749680146</v>
+        <v>0.203706104528036</v>
       </c>
       <c r="C85">
-        <v>-0.09958189788301801</v>
+        <v>0.1197575773270053</v>
       </c>
       <c r="D85">
-        <v>-0.1160173255975611</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.100368775488423</v>
+      </c>
+      <c r="E85">
+        <v>0.005663241537799177</v>
+      </c>
+      <c r="F85">
+        <v>-0.01895018835357706</v>
+      </c>
+      <c r="G85">
+        <v>-0.1288011434205407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01027014397155772</v>
+        <v>0.01115238623421334</v>
       </c>
       <c r="C86">
-        <v>-0.03725617868617711</v>
+        <v>0.03182826391566248</v>
       </c>
       <c r="D86">
-        <v>0.04749484016696114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06562104618365723</v>
+      </c>
+      <c r="E86">
+        <v>-0.06520870744745245</v>
+      </c>
+      <c r="F86">
+        <v>0.1243874028128627</v>
+      </c>
+      <c r="G86">
+        <v>0.008177352584280871</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02252208927098002</v>
+        <v>0.02156798335697703</v>
       </c>
       <c r="C87">
-        <v>-0.02111235958336937</v>
+        <v>0.02176805937123407</v>
       </c>
       <c r="D87">
-        <v>0.09837100364128293</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08859932796924165</v>
+      </c>
+      <c r="E87">
+        <v>-0.1123828178701941</v>
+      </c>
+      <c r="F87">
+        <v>0.07309782592822607</v>
+      </c>
+      <c r="G87">
+        <v>0.035287006136865</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1044742812591331</v>
+        <v>0.09161058025125381</v>
       </c>
       <c r="C88">
-        <v>-0.07099310897110549</v>
+        <v>0.06262544526579839</v>
       </c>
       <c r="D88">
-        <v>-0.0292437842907882</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.006814775280346741</v>
+      </c>
+      <c r="E88">
+        <v>-0.04270809980495027</v>
+      </c>
+      <c r="F88">
+        <v>0.0713703973522041</v>
+      </c>
+      <c r="G88">
+        <v>0.02742628086186245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1725890836118986</v>
+        <v>0.2221506722331576</v>
       </c>
       <c r="C89">
-        <v>0.3844487504608997</v>
+        <v>-0.3788552983952573</v>
       </c>
       <c r="D89">
-        <v>-0.01177571158016806</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.006417064574250293</v>
+      </c>
+      <c r="E89">
+        <v>-0.06196945160203318</v>
+      </c>
+      <c r="F89">
+        <v>0.0765275552571946</v>
+      </c>
+      <c r="G89">
+        <v>0.0609405616895185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1691596763425614</v>
+        <v>0.2013831590999534</v>
       </c>
       <c r="C90">
-        <v>0.3444478315051503</v>
+        <v>-0.313362870026183</v>
       </c>
       <c r="D90">
-        <v>-0.02559261873487401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01649683971845653</v>
+      </c>
+      <c r="E90">
+        <v>-0.07095278652908944</v>
+      </c>
+      <c r="F90">
+        <v>0.03914768444027426</v>
+      </c>
+      <c r="G90">
+        <v>0.01061933373390132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.192071912951738</v>
+        <v>0.1858155160329843</v>
       </c>
       <c r="C91">
-        <v>-0.1188105242132142</v>
+        <v>0.1408705743999291</v>
       </c>
       <c r="D91">
-        <v>-0.08362133942866053</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1114963696489346</v>
+      </c>
+      <c r="E91">
+        <v>-0.05964845873754498</v>
+      </c>
+      <c r="F91">
+        <v>0.03018582931198185</v>
+      </c>
+      <c r="G91">
+        <v>-0.06103638801983154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1601281600148147</v>
+        <v>0.1832008163904322</v>
       </c>
       <c r="C92">
-        <v>0.2925500439754442</v>
+        <v>-0.2841600701182089</v>
       </c>
       <c r="D92">
-        <v>-0.01059562083146019</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006780540903563457</v>
+      </c>
+      <c r="E92">
+        <v>-0.07176226398077024</v>
+      </c>
+      <c r="F92">
+        <v>0.08034413286441006</v>
+      </c>
+      <c r="G92">
+        <v>0.006886085422842214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1910676769505152</v>
+        <v>0.2256336697346581</v>
       </c>
       <c r="C93">
-        <v>0.3468333920967792</v>
+        <v>-0.3193708836213958</v>
       </c>
       <c r="D93">
-        <v>-0.01504648988988492</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.003049034736427753</v>
+      </c>
+      <c r="E93">
+        <v>-0.05149124826801904</v>
+      </c>
+      <c r="F93">
+        <v>0.03899928460492114</v>
+      </c>
+      <c r="G93">
+        <v>-0.02809811211266286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3365921886480839</v>
+        <v>0.3414608738281011</v>
       </c>
       <c r="C94">
-        <v>-0.1359434380213421</v>
+        <v>0.1825580140651852</v>
       </c>
       <c r="D94">
-        <v>-0.4254617572544424</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4938840293827187</v>
+      </c>
+      <c r="E94">
+        <v>-0.04545644778786877</v>
+      </c>
+      <c r="F94">
+        <v>-0.4365085456171159</v>
+      </c>
+      <c r="G94">
+        <v>0.3427915061789739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1119042266868448</v>
+        <v>0.08541956081381757</v>
       </c>
       <c r="C95">
-        <v>-0.07947743757857717</v>
+        <v>0.06840919588525671</v>
       </c>
       <c r="D95">
-        <v>0.114509444802934</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1713030310516221</v>
+      </c>
+      <c r="E95">
+        <v>0.09475038468616842</v>
+      </c>
+      <c r="F95">
+        <v>0.2386366093548619</v>
+      </c>
+      <c r="G95">
+        <v>0.85991408877124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1972482962045813</v>
+        <v>0.1878011158666568</v>
       </c>
       <c r="C98">
-        <v>-0.0222957132509606</v>
+        <v>0.04509469616621814</v>
       </c>
       <c r="D98">
-        <v>0.1211073387225262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1880964550530617</v>
+      </c>
+      <c r="E98">
+        <v>0.148340354573354</v>
+      </c>
+      <c r="F98">
+        <v>-0.03407358687253285</v>
+      </c>
+      <c r="G98">
+        <v>-0.1008377582160424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009050379046964411</v>
+        <v>0.005768195237151308</v>
       </c>
       <c r="C101">
-        <v>-0.02827156725563079</v>
+        <v>0.02732332477136964</v>
       </c>
       <c r="D101">
-        <v>-0.01906515040049637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01860713014528967</v>
+      </c>
+      <c r="E101">
+        <v>-0.04064946249391187</v>
+      </c>
+      <c r="F101">
+        <v>0.08821482142763287</v>
+      </c>
+      <c r="G101">
+        <v>-0.006921928772775259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.122880220788526</v>
+        <v>0.1239320350643182</v>
       </c>
       <c r="C102">
-        <v>-0.07137946252766036</v>
+        <v>0.100469683190995</v>
       </c>
       <c r="D102">
-        <v>-0.02997010305927552</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04872511205826119</v>
+      </c>
+      <c r="E102">
+        <v>0.007619328678058164</v>
+      </c>
+      <c r="F102">
+        <v>0.04238627120617466</v>
+      </c>
+      <c r="G102">
+        <v>-0.02417067697740163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
